--- a/SerialXmlZipProcessor/data/excel/test.xlsx
+++ b/SerialXmlZipProcessor/data/excel/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
   <si>
     <t>test</t>
   </si>
@@ -70,12 +70,16 @@
   </si>
   <si>
     <t>item11</t>
+  </si>
+  <si>
+    <t>NEW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -458,7 +462,7 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">

--- a/SerialXmlZipProcessor/data/excel/test.xlsx
+++ b/SerialXmlZipProcessor/data/excel/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="24">
   <si>
     <t>test</t>
   </si>
@@ -73,6 +73,21 @@
   </si>
   <si>
     <t>NEW</t>
+  </si>
+  <si>
+    <t>nitem100</t>
+  </si>
+  <si>
+    <t>nitem101</t>
+  </si>
+  <si>
+    <t>nitem102</t>
+  </si>
+  <si>
+    <t>nitem103</t>
+  </si>
+  <si>
+    <t>nitem104</t>
   </si>
 </sst>
 </file>
@@ -630,6 +645,40 @@
         <v>17</v>
       </c>
     </row>
+    <row r="21">
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SerialXmlZipProcessor/data/excel/test.xlsx
+++ b/SerialXmlZipProcessor/data/excel/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>test</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>nitem104</t>
+  </si>
+  <si>
+    <t>nitem101x</t>
+  </si>
+  <si>
+    <t>nitem102x</t>
+  </si>
+  <si>
+    <t>nitem103x</t>
+  </si>
+  <si>
+    <t>nitem104x</t>
   </si>
 </sst>
 </file>
@@ -655,7 +667,19 @@
         <v>20</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23">
@@ -663,7 +687,10 @@
         <v>21</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="H23" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24">
@@ -671,12 +698,18 @@
         <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="G25" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/SerialXmlZipProcessor/data/excel/test.xlsx
+++ b/SerialXmlZipProcessor/data/excel/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>test</t>
   </si>
